--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H2">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I2">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J2">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.64683851081969</v>
+        <v>1.927965666666666</v>
       </c>
       <c r="N2">
-        <v>1.64683851081969</v>
+        <v>5.783897</v>
       </c>
       <c r="O2">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="P2">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="Q2">
-        <v>5.053267721478113</v>
+        <v>6.349353263652778</v>
       </c>
       <c r="R2">
-        <v>5.053267721478113</v>
+        <v>57.14417937287499</v>
       </c>
       <c r="S2">
-        <v>0.08094402693777099</v>
+        <v>0.07978071689004185</v>
       </c>
       <c r="T2">
-        <v>0.08094402693777099</v>
+        <v>0.08247419147069285</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H3">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I3">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J3">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.87245804551056</v>
+        <v>1.976870666666667</v>
       </c>
       <c r="N3">
-        <v>1.87245804551056</v>
+        <v>5.930612</v>
       </c>
       <c r="O3">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="P3">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="Q3">
-        <v>5.745573557477059</v>
+        <v>6.510411692611111</v>
       </c>
       <c r="R3">
-        <v>5.745573557477059</v>
+        <v>58.5937052335</v>
       </c>
       <c r="S3">
-        <v>0.09203348930686218</v>
+        <v>0.08180444377842221</v>
       </c>
       <c r="T3">
-        <v>0.09203348930686218</v>
+        <v>0.08456624134668869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.71363574297418</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H4">
-        <v>2.71363574297418</v>
+        <v>8.517274</v>
       </c>
       <c r="I4">
-        <v>0.1529748071626519</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J4">
-        <v>0.1529748071626519</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.64683851081969</v>
+        <v>1.927965666666666</v>
       </c>
       <c r="N4">
-        <v>1.64683851081969</v>
+        <v>5.783897</v>
       </c>
       <c r="O4">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="P4">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="Q4">
-        <v>4.468919845866681</v>
+        <v>5.473670615197555</v>
       </c>
       <c r="R4">
-        <v>4.468919845866681</v>
+        <v>49.263035536778</v>
       </c>
       <c r="S4">
-        <v>0.07158385193982221</v>
+        <v>0.06877761365087254</v>
       </c>
       <c r="T4">
-        <v>0.07158385193982221</v>
+        <v>0.07109961276679655</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.71363574297418</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H5">
-        <v>2.71363574297418</v>
+        <v>8.517274</v>
       </c>
       <c r="I5">
-        <v>0.1529748071626519</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J5">
-        <v>0.1529748071626519</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87245804551056</v>
+        <v>1.976870666666667</v>
       </c>
       <c r="N5">
-        <v>1.87245804551056</v>
+        <v>5.930612</v>
       </c>
       <c r="O5">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="P5">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="Q5">
-        <v>5.081169079517029</v>
+        <v>5.612516376854223</v>
       </c>
       <c r="R5">
-        <v>5.081169079517029</v>
+        <v>50.51264739168801</v>
       </c>
       <c r="S5">
-        <v>0.08139095522282963</v>
+        <v>0.07052223455037815</v>
       </c>
       <c r="T5">
-        <v>0.08139095522282963</v>
+        <v>0.0729031337643317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.82161747845484</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H6">
-        <v>4.82161747845484</v>
+        <v>19.459838</v>
       </c>
       <c r="I6">
-        <v>0.2718072998147854</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J6">
-        <v>0.2718072998147854</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.64683851081969</v>
+        <v>1.927965666666666</v>
       </c>
       <c r="N6">
-        <v>1.64683851081969</v>
+        <v>5.783897</v>
       </c>
       <c r="O6">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="P6">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="Q6">
-        <v>7.940425347960757</v>
+        <v>12.50596651429844</v>
       </c>
       <c r="R6">
-        <v>7.940425347960757</v>
+        <v>112.553698628686</v>
       </c>
       <c r="S6">
-        <v>0.1271909660615987</v>
+        <v>0.1571396223336913</v>
       </c>
       <c r="T6">
-        <v>0.1271909660615987</v>
+        <v>0.1624448087856035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.82161747845484</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H7">
-        <v>4.82161747845484</v>
+        <v>19.459838</v>
       </c>
       <c r="I7">
-        <v>0.2718072998147854</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J7">
-        <v>0.2718072998147854</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87245804551056</v>
+        <v>1.976870666666667</v>
       </c>
       <c r="N7">
-        <v>1.87245804551056</v>
+        <v>5.930612</v>
       </c>
       <c r="O7">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="P7">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="Q7">
-        <v>9.028276439907104</v>
+        <v>12.82319430676178</v>
       </c>
       <c r="R7">
-        <v>9.028276439907104</v>
+        <v>115.408748760856</v>
       </c>
       <c r="S7">
-        <v>0.1446163337531866</v>
+        <v>0.1611256441613081</v>
       </c>
       <c r="T7">
-        <v>0.1446163337531866</v>
+        <v>0.166565402586112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.19328185046771</v>
+        <v>5.765308999999999</v>
       </c>
       <c r="H8">
-        <v>5.19328185046771</v>
+        <v>17.295927</v>
       </c>
       <c r="I8">
-        <v>0.2927590011568317</v>
+        <v>0.2828745447897899</v>
       </c>
       <c r="J8">
-        <v>0.2927590011568317</v>
+        <v>0.292424664487945</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.64683851081969</v>
+        <v>1.927965666666666</v>
       </c>
       <c r="N8">
-        <v>1.64683851081969</v>
+        <v>5.783897</v>
       </c>
       <c r="O8">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="P8">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="Q8">
-        <v>8.552496548891167</v>
+        <v>11.11531780972433</v>
       </c>
       <c r="R8">
-        <v>8.552496548891167</v>
+        <v>100.037860287519</v>
       </c>
       <c r="S8">
-        <v>0.1369952175888567</v>
+        <v>0.1396658819405945</v>
       </c>
       <c r="T8">
-        <v>0.1369952175888567</v>
+        <v>0.144381137925442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.19328185046771</v>
+        <v>5.765308999999999</v>
       </c>
       <c r="H9">
-        <v>5.19328185046771</v>
+        <v>17.295927</v>
       </c>
       <c r="I9">
-        <v>0.2927590011568317</v>
+        <v>0.2828745447897899</v>
       </c>
       <c r="J9">
-        <v>0.2927590011568317</v>
+        <v>0.292424664487945</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.87245804551056</v>
+        <v>1.976870666666667</v>
       </c>
       <c r="N9">
-        <v>1.87245804551056</v>
+        <v>5.930612</v>
       </c>
       <c r="O9">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="P9">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="Q9">
-        <v>9.724202383512234</v>
+        <v>11.39727024636933</v>
       </c>
       <c r="R9">
-        <v>9.724202383512234</v>
+        <v>102.575432217324</v>
       </c>
       <c r="S9">
-        <v>0.155763783567975</v>
+        <v>0.1432086628491954</v>
       </c>
       <c r="T9">
-        <v>0.155763783567975</v>
+        <v>0.148043526562503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94210131449623</v>
+        <v>1.996847</v>
       </c>
       <c r="H10">
-        <v>1.94210131449623</v>
+        <v>3.993694</v>
       </c>
       <c r="I10">
-        <v>0.109481375621098</v>
+        <v>0.09797517984549615</v>
       </c>
       <c r="J10">
-        <v>0.109481375621098</v>
+        <v>0.06752194479182982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.64683851081969</v>
+        <v>1.927965666666666</v>
       </c>
       <c r="N10">
-        <v>1.64683851081969</v>
+        <v>5.783897</v>
       </c>
       <c r="O10">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="P10">
-        <v>0.46794536477964</v>
+        <v>0.4937378937520984</v>
       </c>
       <c r="Q10">
-        <v>3.198327236625934</v>
+        <v>3.849852457586333</v>
       </c>
       <c r="R10">
-        <v>3.198327236625934</v>
+        <v>23.099114745518</v>
       </c>
       <c r="S10">
-        <v>0.05123130225159148</v>
+        <v>0.04837405893689831</v>
       </c>
       <c r="T10">
-        <v>0.05123130225159148</v>
+        <v>0.03333814280356352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.94210131449623</v>
+        <v>1.996847</v>
       </c>
       <c r="H11">
-        <v>1.94210131449623</v>
+        <v>3.993694</v>
       </c>
       <c r="I11">
-        <v>0.109481375621098</v>
+        <v>0.09797517984549615</v>
       </c>
       <c r="J11">
-        <v>0.109481375621098</v>
+        <v>0.06752194479182982</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.87245804551056</v>
+        <v>1.976870666666667</v>
       </c>
       <c r="N11">
-        <v>1.87245804551056</v>
+        <v>5.930612</v>
       </c>
       <c r="O11">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="P11">
-        <v>0.5320546352203599</v>
+        <v>0.5062621062479017</v>
       </c>
       <c r="Q11">
-        <v>3.6365032315251</v>
+        <v>3.947508260121333</v>
       </c>
       <c r="R11">
-        <v>3.6365032315251</v>
+        <v>23.685049560728</v>
       </c>
       <c r="S11">
-        <v>0.05825007336950648</v>
+        <v>0.04960112090859785</v>
       </c>
       <c r="T11">
-        <v>0.05825007336950648</v>
+        <v>0.0341838019882663</v>
       </c>
     </row>
   </sheetData>
